--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1986895.49292328</v>
+        <v>2081913.04269977</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10731822.83646701</v>
+        <v>12054037.64689931</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3059782.097200736</v>
+        <v>4181370.788344814</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8934576.78996259</v>
+        <v>8463049.822073122</v>
       </c>
     </row>
     <row r="11">
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1227,49 +1229,49 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="I9" t="n">
+      <c r="S9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>99.59933623926791</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>167.1133262249485</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>149.5516258167723</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>15.07437110675873</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>307.5629862906309</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>104.0575451467303</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1768,16 +1770,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>49.0018681194105</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>127.8885134124236</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,25 +1846,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>145.2481701217152</v>
       </c>
       <c r="F17" t="n">
-        <v>241.4063664900334</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414546</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>209.2067753338395</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>165.8684410387798</v>
       </c>
     </row>
     <row r="20">
@@ -2084,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>166.1032380313644</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2141,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>162.1413128972403</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247737</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097352</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>6.380068175847859</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>112.9416910403812</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>29.7649898211773</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2372,16 +2374,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>127.3165365479904</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041371</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9951719589016</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>152.4898639532036</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589025</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>341.0551422849036</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>20.84901245549809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>234.6606904957405</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3032,10 +3034,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>46.42246812243206</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3083,16 +3085,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>200.0408635825743</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>317.1191748890789</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>323.9708417730891</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.192068434669932</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.74868616823397</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>168.1158122680972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>212.2389816846942</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>75.84199020478717</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>143.9764333632484</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>167.0871020271715</v>
+        <v>217.2641624118029</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>24.76976233530637</v>
       </c>
       <c r="G43" t="n">
-        <v>120.6353666620236</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>186.8250998946407</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>256.751887733901</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>107.6110020275123</v>
+        <v>4.26572956010237</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F8" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="C8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
         <v>13.8896123982571</v>
       </c>
       <c r="M8" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O8" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C9" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D9" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E9" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="K9" t="n">
         <v>7.082327113962777</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="M9" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="L9" t="n">
-        <v>13.8896123982571</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N9" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="O9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4907,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C10" t="n">
-        <v>6.667680719235332</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D10" t="n">
-        <v>6.667680719235332</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E10" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F10" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G10" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L10" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>20.97193951221988</v>
-      </c>
-      <c r="N10" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4981,31 +4983,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S10" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T10" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U10" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V10" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W10" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X10" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.667680719235332</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796256</v>
+        <v>1032.061124352531</v>
       </c>
       <c r="C11" t="n">
-        <v>821.1650657389509</v>
+        <v>663.098607412119</v>
       </c>
       <c r="D11" t="n">
-        <v>821.1650657389509</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E11" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5039,7 +5041,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5048,7 +5050,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5114,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,19 +5123,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>363.7915515140957</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C13" t="n">
-        <v>363.7915515140957</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7915515140957</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E13" t="n">
-        <v>363.7915515140957</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>363.7915515140957</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1912.067910606918</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1720.382026433745</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672847</v>
+        <v>1498.615411003271</v>
       </c>
       <c r="U13" t="n">
-        <v>1356.675339798491</v>
+        <v>1209.512544128914</v>
       </c>
       <c r="V13" t="n">
-        <v>1101.990851592604</v>
+        <v>954.8280559230273</v>
       </c>
       <c r="W13" t="n">
-        <v>812.5736815556431</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X13" t="n">
-        <v>584.5841306576258</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y13" t="n">
-        <v>363.7915515140957</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1127.748203495404</v>
+        <v>1190.127582679363</v>
       </c>
       <c r="C14" t="n">
-        <v>1127.748203495404</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="D14" t="n">
-        <v>1127.748203495404</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E14" t="n">
-        <v>1127.748203495404</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
-        <v>716.7622987057969</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052369</v>
@@ -5306,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>1904.487375535338</v>
+        <v>1966.866754719296</v>
       </c>
       <c r="Y14" t="n">
-        <v>1514.348043559526</v>
+        <v>1576.727422743484</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>452.6479724696244</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C16" t="n">
-        <v>283.7117895417175</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D16" t="n">
-        <v>234.2149530574645</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E16" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
         <v>66.51211643218343</v>
@@ -5434,52 +5436,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.60866391532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484846</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046023</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676417</v>
+        <v>751.043919583924</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696244</v>
+        <v>751.043919583924</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.6479724696244</v>
+        <v>530.2513404403938</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1381.278680221568</v>
+        <v>921.770455879627</v>
       </c>
       <c r="C17" t="n">
-        <v>1381.278680221568</v>
+        <v>552.8079389392153</v>
       </c>
       <c r="D17" t="n">
-        <v>1023.012981614817</v>
+        <v>552.8079389392153</v>
       </c>
       <c r="E17" t="n">
-        <v>1023.012981614817</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W17" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X17" t="n">
-        <v>2158.017852261501</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y17" t="n">
-        <v>1767.878520285689</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.6774975139006</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C19" t="n">
         <v>922.6774975139006</v>
@@ -5668,7 +5670,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T19" t="n">
-        <v>1626.144115761335</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U19" t="n">
-        <v>1626.144115761335</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="V19" t="n">
-        <v>1371.459627555448</v>
+        <v>1259.157560278959</v>
       </c>
       <c r="W19" t="n">
-        <v>1371.459627555448</v>
+        <v>1259.157560278959</v>
       </c>
       <c r="X19" t="n">
-        <v>1143.470076657431</v>
+        <v>1259.157560278959</v>
       </c>
       <c r="Y19" t="n">
-        <v>922.6774975139006</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1148.130683918831</v>
+        <v>1758.295537883727</v>
       </c>
       <c r="C20" t="n">
-        <v>779.1681669784198</v>
+        <v>1389.333020943315</v>
       </c>
       <c r="D20" t="n">
-        <v>779.1681669784198</v>
+        <v>1031.067322336565</v>
       </c>
       <c r="E20" t="n">
-        <v>779.1681669784198</v>
+        <v>645.2790697383207</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>234.2931649487131</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923661</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2535.034709923661</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2535.034709923661</v>
       </c>
       <c r="Y20" t="n">
-        <v>1534.730523982953</v>
+        <v>2144.895377947849</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158112</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438127</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.8928126690276</v>
+        <v>2042.645130163478</v>
       </c>
       <c r="C22" t="n">
-        <v>72.95662974112065</v>
+        <v>1873.708947235571</v>
       </c>
       <c r="D22" t="n">
-        <v>72.95662974112065</v>
+        <v>1873.708947235571</v>
       </c>
       <c r="E22" t="n">
-        <v>72.95662974112065</v>
+        <v>1725.795853653178</v>
       </c>
       <c r="F22" t="n">
-        <v>72.95662974112065</v>
+        <v>1578.905906155268</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>1578.905906155268</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797171</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.65004939672</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102585</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022999</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456658</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>3103.839206178699</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>2814.736339304342</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>2560.051851098456</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408147</v>
+        <v>2270.634681061495</v>
       </c>
       <c r="X22" t="n">
-        <v>644.3338566427974</v>
+        <v>2042.645130163478</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.5412774992673</v>
+        <v>2042.645130163478</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1339.447785386687</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>2317.998088216516</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>3297.750360443163</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>3800.7228313225</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>907.902424901197</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1772.421240554552</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>2750.97154338438</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443163</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>685.8122911638649</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>516.876108235958</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>366.7594688236222</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>366.7594688236222</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>366.7594688236222</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.0738540998329</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>888.4135721382786</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.447785386687</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>2317.998088216516</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443163</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>1015.34761180106</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>846.4114288731531</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>696.2947894608174</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>548.3816958784242</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>401.4917483805139</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>233.7889117552328</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>87.5717249730906</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U31" t="n">
-        <v>1437.79612418831</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V31" t="n">
-        <v>1183.111635982423</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W31" t="n">
-        <v>893.6944659454626</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X31" t="n">
-        <v>665.7049150474453</v>
+        <v>1417.78865577483</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.9123359039152</v>
+        <v>1196.9960766313</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>959.6790992115388</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>731.6895483135214</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>731.6895483135214</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038043</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C35" t="n">
-        <v>1453.669719097632</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D35" t="n">
-        <v>1095.404020490881</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6944,7 +6946,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102165</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>304.8914167017408</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="C37" t="n">
-        <v>135.9552337738339</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="D37" t="n">
-        <v>135.9552337738339</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E37" t="n">
-        <v>135.9552337738339</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F37" t="n">
-        <v>135.9552337738339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
@@ -7129,16 +7131,16 @@
         <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1224.739181610489</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>935.322011573528</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>707.3324606755107</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y37" t="n">
-        <v>486.5398815319805</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,16 +7174,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7199,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="39">
@@ -7257,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>676.468527222536</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C40" t="n">
-        <v>507.5323442946291</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D40" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7360,22 +7362,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>1850.686477174566</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1561.58361030021</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V40" t="n">
-        <v>1306.899122094323</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W40" t="n">
-        <v>1306.899122094323</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X40" t="n">
-        <v>1078.909571196306</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y40" t="n">
-        <v>858.1169920527757</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1032.061124352532</v>
+        <v>1767.87852028569</v>
       </c>
       <c r="C41" t="n">
-        <v>863.2862738200351</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,22 +7411,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923659</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653545</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X41" t="n">
-        <v>1808.800296392465</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y41" t="n">
-        <v>1418.660964416653</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.3660221513992</v>
+        <v>652.894418388452</v>
       </c>
       <c r="C43" t="n">
-        <v>188.3660221513992</v>
+        <v>652.894418388452</v>
       </c>
       <c r="D43" t="n">
-        <v>188.3660221513992</v>
+        <v>502.7777789761162</v>
       </c>
       <c r="E43" t="n">
-        <v>188.3660221513992</v>
+        <v>502.7777789761162</v>
       </c>
       <c r="F43" t="n">
-        <v>188.3660221513992</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7597,22 +7599,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251691</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X43" t="n">
-        <v>590.8070661251691</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y43" t="n">
-        <v>370.0144869816389</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796265</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C44" t="n">
-        <v>552.8079389392149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D44" t="n">
-        <v>364.0957168234162</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>364.0957168234162</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7676,22 +7678,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943748</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.0659616987016</v>
+        <v>661.957801444442</v>
       </c>
       <c r="C46" t="n">
-        <v>620.1297787707947</v>
+        <v>661.957801444442</v>
       </c>
       <c r="D46" t="n">
-        <v>470.0131393584589</v>
+        <v>511.8411620321062</v>
       </c>
       <c r="E46" t="n">
-        <v>322.1000457760658</v>
+        <v>363.9280684497131</v>
       </c>
       <c r="F46" t="n">
-        <v>175.2100982781555</v>
+        <v>217.0381209518028</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T46" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.924175709432</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.507005672471</v>
+        <v>1071.595817172699</v>
       </c>
       <c r="X46" t="n">
-        <v>1191.507005672471</v>
+        <v>843.6062662746817</v>
       </c>
       <c r="Y46" t="n">
-        <v>970.7144265289413</v>
+        <v>843.6062662746817</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>160.2261912182084</v>
+        <v>115.4149081609421</v>
       </c>
       <c r="K2" t="n">
-        <v>188.8864977494883</v>
+        <v>121.7260005734386</v>
       </c>
       <c r="L2" t="n">
-        <v>197.0558960176891</v>
+        <v>113.7373605334014</v>
       </c>
       <c r="M2" t="n">
-        <v>187.2733221743588</v>
+        <v>94.56539768499405</v>
       </c>
       <c r="N2" t="n">
-        <v>185.6431878114987</v>
+        <v>91.43515218074506</v>
       </c>
       <c r="O2" t="n">
-        <v>188.7675588853749</v>
+        <v>99.8095822646296</v>
       </c>
       <c r="P2" t="n">
-        <v>195.9582400339688</v>
+        <v>120.0346651036904</v>
       </c>
       <c r="Q2" t="n">
-        <v>195.8158173810003</v>
+        <v>138.8003745232219</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>114.4375480494522</v>
+        <v>87.74825484856609</v>
       </c>
       <c r="K3" t="n">
-        <v>116.6477295620761</v>
+        <v>71.0314764736854</v>
       </c>
       <c r="L3" t="n">
-        <v>110.0568220088699</v>
+        <v>48.72014033625177</v>
       </c>
       <c r="M3" t="n">
-        <v>108.8787281462195</v>
+        <v>37.30171369864563</v>
       </c>
       <c r="N3" t="n">
-        <v>97.20623731789981</v>
+        <v>23.73479228195234</v>
       </c>
       <c r="O3" t="n">
-        <v>111.3689539403808</v>
+        <v>44.15693554437001</v>
       </c>
       <c r="P3" t="n">
-        <v>108.9117537382574</v>
+        <v>54.96818345924626</v>
       </c>
       <c r="Q3" t="n">
-        <v>123.2280538281221</v>
+        <v>87.16820566329278</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>88.71375290794845</v>
       </c>
       <c r="L4" t="n">
-        <v>118.525606626932</v>
+        <v>83.3151841791767</v>
       </c>
       <c r="M4" t="n">
-        <v>121.677438707957</v>
+        <v>84.55298510231658</v>
       </c>
       <c r="N4" t="n">
-        <v>110.8473263234368</v>
+        <v>74.60560924730467</v>
       </c>
       <c r="O4" t="n">
-        <v>122.9037186533131</v>
+        <v>89.42862704161571</v>
       </c>
       <c r="P4" t="n">
-        <v>124.4198798788595</v>
+        <v>95.7761560042762</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>94.35534319230364</v>
+        <v>87.75711748056034</v>
       </c>
       <c r="K8" t="n">
         <v>87.15018762786912</v>
       </c>
       <c r="L8" t="n">
-        <v>62.31266440775192</v>
+        <v>68.91089011949522</v>
       </c>
       <c r="M8" t="n">
-        <v>44.22156050876461</v>
+        <v>37.34551476705317</v>
       </c>
       <c r="N8" t="n">
         <v>33.28939173564609</v>
       </c>
       <c r="O8" t="n">
-        <v>44.90418949596821</v>
+        <v>51.78023523767965</v>
       </c>
       <c r="P8" t="n">
-        <v>80.05022839850571</v>
+        <v>73.17418265679427</v>
       </c>
       <c r="Q8" t="n">
-        <v>103.6101037582789</v>
+        <v>110.4861494999904</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>77.87368990590862</v>
+        <v>71.27546419416532</v>
       </c>
       <c r="K9" t="n">
-        <v>49.75289923953348</v>
+        <v>49.47507920956532</v>
       </c>
       <c r="L9" t="n">
         <v>10.86277524892485</v>
@@ -8544,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2.673277653404995</v>
+        <v>9.549323395116431</v>
       </c>
       <c r="P9" t="n">
         <v>21.67389073786379</v>
@@ -8611,7 +8613,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>78.60704137344501</v>
+        <v>71.73099563173358</v>
       </c>
       <c r="L10" t="n">
         <v>68.45914756601975</v>
@@ -8620,10 +8622,10 @@
         <v>68.51559706360761</v>
       </c>
       <c r="N10" t="n">
-        <v>58.83523141988323</v>
+        <v>59.11305144985138</v>
       </c>
       <c r="O10" t="n">
-        <v>68.76760120980124</v>
+        <v>75.36582692154452</v>
       </c>
       <c r="P10" t="n">
         <v>78.09707910265161</v>
@@ -9635,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>103.7862464855143</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>123.4719563470481</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,10 +9895,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.05743536566625</v>
+        <v>14.52945960098911</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>265.6735555317396</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>187.5697153957345</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>16.47418244225591</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>73.8577815632886</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>103.3587393628225</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>265.6735555317387</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>99.61360489880185</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>158.6344849241675</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>236.6821999505466</v>
       </c>
       <c r="F17" t="n">
-        <v>165.4696792516781</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>10.34217394232974</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>52.71621231331503</v>
       </c>
     </row>
     <row r="20">
@@ -23972,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>244.8184876220891</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292584</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>224.0966257588133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>159.6457400831804</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>31.81332387393958</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004727</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>324.9180517995056</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24266,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>39.93028455063747</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>13.53594430582459</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24734,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>8.185826432509373</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>75.50340795433999</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>51.55114770987242</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24920,10 +24922,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>308.2605734982509</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24977,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25123,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>86.48213475401673</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>64.81119518318286</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25202,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>3.781416697045813</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>147.4234045835424</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.27712209079425</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>181.1251564493158</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>173.9989569713594</v>
       </c>
     </row>
     <row r="39">
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25600,16 +25602,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>143.706959071382</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>198.1857897438361</v>
+        <v>148.0087293592046</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6512856876249</v>
       </c>
       <c r="G43" t="n">
-        <v>45.3904415970046</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>167.8579417260423</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>129.4860509221526</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>58.41480623151591</v>
+        <v>161.7600786989259</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>888305.7232313863</v>
+        <v>861685.8313107876</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>691143.3574170262</v>
+        <v>691143.3574170263</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691143.3574170264</v>
+        <v>691143.3574170263</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>691143.3574170262</v>
+        <v>691143.3574170264</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>846230.3089424957</v>
+        <v>691143.3574170262</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>846230.3089424957</v>
+        <v>691143.3574170264</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>846230.3089424957</v>
+        <v>691143.3574170264</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>846230.3089424957</v>
+        <v>691143.3574170263</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>691143.3574170263</v>
+        <v>691143.3574170264</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>691143.3574170263</v>
+        <v>691143.3574170262</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>691143.3574170263</v>
+        <v>691143.3574170264</v>
       </c>
     </row>
     <row r="16">
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614471.8985761019</v>
+        <v>614503.4187292531</v>
       </c>
       <c r="C2" t="n">
         <v>614513.6012469289</v>
       </c>
       <c r="D2" t="n">
-        <v>615343.8730169892</v>
+        <v>615343.8730169893</v>
       </c>
       <c r="E2" t="n">
         <v>511495.6484563809</v>
       </c>
       <c r="F2" t="n">
+        <v>511495.6484563809</v>
+      </c>
+      <c r="G2" t="n">
+        <v>511495.6484563811</v>
+      </c>
+      <c r="H2" t="n">
+        <v>511495.6484563811</v>
+      </c>
+      <c r="I2" t="n">
+        <v>511495.6484563807</v>
+      </c>
+      <c r="J2" t="n">
+        <v>511495.6484563809</v>
+      </c>
+      <c r="K2" t="n">
+        <v>511495.648456381</v>
+      </c>
+      <c r="L2" t="n">
         <v>511495.6484563808</v>
       </c>
-      <c r="G2" t="n">
-        <v>511495.6484563809</v>
-      </c>
-      <c r="H2" t="n">
-        <v>511495.6484563809</v>
-      </c>
-      <c r="I2" t="n">
-        <v>595622.6803304749</v>
-      </c>
-      <c r="J2" t="n">
-        <v>595622.6803304746</v>
-      </c>
-      <c r="K2" t="n">
-        <v>595622.6803304746</v>
-      </c>
-      <c r="L2" t="n">
-        <v>595622.6803304745</v>
-      </c>
       <c r="M2" t="n">
-        <v>511495.6484563809</v>
+        <v>511495.6484563807</v>
       </c>
       <c r="N2" t="n">
         <v>511495.6484563809</v>
@@ -26353,7 +26355,7 @@
         <v>511495.6484563809</v>
       </c>
       <c r="P2" t="n">
-        <v>511495.648456381</v>
+        <v>511495.6484563807</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58798.61461382534</v>
+        <v>185353.7368576236</v>
       </c>
       <c r="C3" t="n">
-        <v>158227.231084847</v>
+        <v>38634.25400229714</v>
       </c>
       <c r="D3" t="n">
         <v>35221.70711368781</v>
@@ -26378,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>96558.96659736056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1740.26529281546</v>
+        <v>1740.265292815489</v>
       </c>
       <c r="M3" t="n">
-        <v>114986.1981226575</v>
+        <v>205475.0301890554</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>410321.6508050896</v>
+        <v>378464.189664156</v>
       </c>
       <c r="C4" t="n">
         <v>368187.1026115649</v>
@@ -26424,40 +26426,40 @@
         <v>358961.1152399345</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091448</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="G4" t="n">
-        <v>9770.403102091463</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
         <v>9770.403102091477</v>
       </c>
       <c r="I4" t="n">
-        <v>52859.64909820931</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="J4" t="n">
-        <v>52859.64909820931</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="K4" t="n">
-        <v>52859.64909820931</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="L4" t="n">
-        <v>52859.64909820929</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="M4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="N4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34957.81223103195</v>
+        <v>37820.89280893491</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26479,25 +26481,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139331</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.34056139334</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="I5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110393.820926155</v>
+        <v>12864.59939853864</v>
       </c>
       <c r="C6" t="n">
-        <v>49353.46271937038</v>
+        <v>168946.4398019201</v>
       </c>
       <c r="D6" t="n">
-        <v>181154.9838957217</v>
+        <v>181154.9838957218</v>
       </c>
       <c r="E6" t="n">
-        <v>-474635.2969868755</v>
+        <v>-474635.2969868756</v>
       </c>
       <c r="F6" t="n">
-        <v>427418.904792896</v>
+        <v>427418.9047928962</v>
       </c>
       <c r="G6" t="n">
         <v>427418.9047928962</v>
       </c>
       <c r="H6" t="n">
+        <v>427418.9047928959</v>
+      </c>
+      <c r="I6" t="n">
+        <v>427418.9047928966</v>
+      </c>
+      <c r="J6" t="n">
         <v>427418.9047928962</v>
       </c>
-      <c r="I6" t="n">
-        <v>349820.5463811914</v>
-      </c>
-      <c r="J6" t="n">
-        <v>446379.5129785517</v>
-      </c>
       <c r="K6" t="n">
-        <v>446379.5129785517</v>
+        <v>427418.9047928962</v>
       </c>
       <c r="L6" t="n">
-        <v>444639.2476857362</v>
+        <v>425678.6395000805</v>
       </c>
       <c r="M6" t="n">
-        <v>312432.7066702387</v>
+        <v>221943.8746038405</v>
       </c>
       <c r="N6" t="n">
-        <v>427418.9047928962</v>
+        <v>427418.9047928961</v>
       </c>
       <c r="O6" t="n">
-        <v>427418.9047928962</v>
+        <v>427418.9047928961</v>
       </c>
       <c r="P6" t="n">
-        <v>427418.9047928962</v>
+        <v>427418.9047928959</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.01890968036477</v>
+        <v>192.3528811438031</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26747,13 +26749,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26802,34 +26804,34 @@
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022932</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1194.51293060493</v>
-      </c>
       <c r="J4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>1194.51293060493</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.01890968036477</v>
+        <v>192.3528811438031</v>
       </c>
       <c r="C3" t="n">
-        <v>173.7611284456294</v>
+        <v>42.42715698219106</v>
       </c>
       <c r="D3" t="n">
         <v>38.63295208268428</v>
@@ -26972,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-4.082080538803227e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>363.1114752026375</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711323</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>461.4139344579439</v>
+        <v>824.525409660581</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>336.9626014775198</v>
+        <v>331.55546967752</v>
       </c>
       <c r="I2" t="n">
-        <v>201.0188784530099</v>
+        <v>180.6640927852945</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.46015679458</v>
+        <v>101.2946991666796</v>
       </c>
       <c r="S2" t="n">
-        <v>203.430246855225</v>
+        <v>191.3989991176447</v>
       </c>
       <c r="T2" t="n">
-        <v>222.0220394048317</v>
+        <v>219.7108254949575</v>
       </c>
       <c r="U2" t="n">
-        <v>251.326028735879</v>
+        <v>251.2837906747048</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27470,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2122689423887</v>
+        <v>136.9297770037693</v>
       </c>
       <c r="H3" t="n">
-        <v>110.9678627354006</v>
+        <v>108.2395853282073</v>
       </c>
       <c r="I3" t="n">
-        <v>84.87777963452014</v>
+        <v>75.15163174784098</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>92.00893145985781</v>
+        <v>74.46965127083485</v>
       </c>
       <c r="S3" t="n">
-        <v>169.2452929670798</v>
+        <v>163.9981291071963</v>
       </c>
       <c r="T3" t="n">
-        <v>199.6357062608947</v>
+        <v>198.4970655083013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.932747329605</v>
+        <v>225.9141623336432</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8809452590351</v>
+        <v>167.6441135072158</v>
       </c>
       <c r="H4" t="n">
-        <v>161.2488693325642</v>
+        <v>159.1432197572979</v>
       </c>
       <c r="I4" t="n">
-        <v>152.1414494645919</v>
+        <v>145.0192727826075</v>
       </c>
       <c r="J4" t="n">
-        <v>85.57976928742364</v>
+        <v>68.83576443379808</v>
       </c>
       <c r="K4" t="n">
-        <v>9.485530092849057</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.9481878899593</v>
+        <v>57.11675819898011</v>
       </c>
       <c r="R4" t="n">
-        <v>172.3458581430861</v>
+        <v>161.6970413749195</v>
       </c>
       <c r="S4" t="n">
-        <v>222.0990037770172</v>
+        <v>217.9716722475842</v>
       </c>
       <c r="T4" t="n">
-        <v>227.4754437307442</v>
+        <v>226.4635262456981</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3130274965224</v>
+        <v>286.3001094009686</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27871,7 +27873,7 @@
         <v>328.2181557399898</v>
       </c>
       <c r="I8" t="n">
-        <v>168.1009978919332</v>
+        <v>161.2249521502218</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>73.94873553131401</v>
+        <v>74.76836018372603</v>
       </c>
       <c r="S8" t="n">
         <v>183.9732413877317</v>
@@ -27907,7 +27909,7 @@
         <v>218.2843305103083</v>
       </c>
       <c r="U8" t="n">
-        <v>245.2013000025906</v>
+        <v>251.25772109189</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27932,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>166.6520778990163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27947,10 +27949,10 @@
         <v>136.7554212974788</v>
       </c>
       <c r="H9" t="n">
-        <v>99.67963052837456</v>
+        <v>106.555676270086</v>
       </c>
       <c r="I9" t="n">
-        <v>62.27254962726849</v>
+        <v>69.14859536897993</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>63.64430312062375</v>
+        <v>56.76825737891232</v>
       </c>
       <c r="S9" t="n">
-        <v>160.7595483346515</v>
+        <v>154.7031272453521</v>
       </c>
       <c r="T9" t="n">
         <v>197.794289657069</v>
@@ -27989,7 +27991,7 @@
         <v>225.9026915634925</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28011,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3707753569164</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>142.5590519289129</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,13 +28028,13 @@
         <v>167.4979395400497</v>
       </c>
       <c r="H10" t="n">
-        <v>157.843600303766</v>
+        <v>150.9675545620546</v>
       </c>
       <c r="I10" t="n">
         <v>140.6234229336467</v>
       </c>
       <c r="J10" t="n">
-        <v>52.44484386585052</v>
+        <v>58.50126495514995</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.0006359884725</v>
+        <v>44.87668173018394</v>
       </c>
       <c r="R10" t="n">
-        <v>148.2484825277183</v>
+        <v>155.1245282694298</v>
       </c>
       <c r="S10" t="n">
-        <v>208.5482129144405</v>
+        <v>215.424258656152</v>
       </c>
       <c r="T10" t="n">
         <v>225.8389647496245</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2453021494688029</v>
+        <v>0.7732779141459416</v>
       </c>
       <c r="H2" t="n">
-        <v>2.512200638247378</v>
+        <v>7.919332438247127</v>
       </c>
       <c r="I2" t="n">
-        <v>9.457011117396034</v>
+        <v>29.81179678511144</v>
       </c>
       <c r="J2" t="n">
-        <v>20.81971330847783</v>
+        <v>65.63099636574418</v>
       </c>
       <c r="K2" t="n">
-        <v>31.20335329549226</v>
+        <v>98.36385047154191</v>
       </c>
       <c r="L2" t="n">
-        <v>38.71051895229815</v>
+        <v>122.0290544365858</v>
       </c>
       <c r="M2" t="n">
-        <v>43.07291105291397</v>
+        <v>135.7808355422787</v>
       </c>
       <c r="N2" t="n">
-        <v>43.76987578509221</v>
+        <v>137.9779114158459</v>
       </c>
       <c r="O2" t="n">
-        <v>41.3306525363118</v>
+        <v>130.2886291570571</v>
       </c>
       <c r="P2" t="n">
-        <v>35.27475572130072</v>
+        <v>111.1983306515792</v>
       </c>
       <c r="Q2" t="n">
-        <v>26.48987249344921</v>
+        <v>83.50531535122761</v>
       </c>
       <c r="R2" t="n">
-        <v>15.40896114656971</v>
+        <v>48.57441877447005</v>
       </c>
       <c r="S2" t="n">
-        <v>5.589822731020352</v>
+        <v>17.62107046860066</v>
       </c>
       <c r="T2" t="n">
-        <v>1.073810159299685</v>
+        <v>3.385024069173861</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01962417195750423</v>
+        <v>0.06186223313167532</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1312482208219167</v>
+        <v>0.4137401594413879</v>
       </c>
       <c r="H3" t="n">
-        <v>1.26758150109588</v>
+        <v>3.995858908289194</v>
       </c>
       <c r="I3" t="n">
-        <v>4.518853216894939</v>
+        <v>14.2450011035741</v>
       </c>
       <c r="J3" t="n">
-        <v>12.40007861721451</v>
+        <v>39.0893718181006</v>
       </c>
       <c r="K3" t="n">
-        <v>21.19370941228292</v>
+        <v>66.80996250067359</v>
       </c>
       <c r="L3" t="n">
-        <v>28.49755777100432</v>
+        <v>89.83423944362241</v>
       </c>
       <c r="M3" t="n">
-        <v>33.2553057757988</v>
+        <v>104.8323202233727</v>
       </c>
       <c r="N3" t="n">
-        <v>34.1354747654335</v>
+        <v>107.606919801381</v>
       </c>
       <c r="O3" t="n">
-        <v>31.22729050406366</v>
+        <v>98.43930890007442</v>
       </c>
       <c r="P3" t="n">
-        <v>25.06265367607284</v>
+        <v>79.00622395508398</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.7537202578994</v>
+        <v>52.81356842272874</v>
       </c>
       <c r="R3" t="n">
-        <v>8.148902692785322</v>
+        <v>25.68818288180828</v>
       </c>
       <c r="S3" t="n">
-        <v>2.437878136757968</v>
+        <v>7.685041996641564</v>
       </c>
       <c r="T3" t="n">
-        <v>0.5290224339269359</v>
+        <v>1.66766318652033</v>
       </c>
       <c r="U3" t="n">
-        <v>0.008634751369862944</v>
+        <v>0.02721974733167027</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1100340994236086</v>
+        <v>0.3468658512429236</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9783031748753571</v>
+        <v>3.083952750141632</v>
       </c>
       <c r="I4" t="n">
-        <v>3.30902546266634</v>
+        <v>10.43120214465083</v>
       </c>
       <c r="J4" t="n">
-        <v>7.779410829249127</v>
+        <v>24.5234156828747</v>
       </c>
       <c r="K4" t="n">
-        <v>12.7839617330338</v>
+        <v>40.29950526258694</v>
       </c>
       <c r="L4" t="n">
-        <v>16.35906965430632</v>
+        <v>51.56949210206158</v>
       </c>
       <c r="M4" t="n">
-        <v>17.24834523964802</v>
+        <v>54.37279884528847</v>
       </c>
       <c r="N4" t="n">
-        <v>16.83821814179641</v>
+        <v>53.07993521792852</v>
       </c>
       <c r="O4" t="n">
-        <v>15.5528197985297</v>
+        <v>49.02791141022708</v>
       </c>
       <c r="P4" t="n">
-        <v>13.30812417028807</v>
+        <v>41.9518480448714</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.21385536173508</v>
+        <v>29.04528505271427</v>
       </c>
       <c r="R4" t="n">
-        <v>4.947533234083346</v>
+        <v>15.59635000225</v>
       </c>
       <c r="S4" t="n">
-        <v>1.917594259955069</v>
+        <v>6.044925789388039</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4701456975372366</v>
+        <v>1.482063182583401</v>
       </c>
       <c r="U4" t="n">
-        <v>0.006001859968560476</v>
+        <v>0.01891995552234131</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681601</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953991</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003814</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623197</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574999</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095028</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746417</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781693</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806958</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.350480948934528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752262</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.956561913877</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970253</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400293</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238319</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898505</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32621,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712221</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553038</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112301</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33977,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34135,7 +34137,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
         <v>769.2673490574995</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34457,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,7 +35266,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>6.876045741711437</v>
@@ -35340,10 +35342,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O10" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554008</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302272</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193722</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037198</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222495</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597725</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340028</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525809</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701983</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.633379393484</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675403</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451106</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789377</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>559.3763608778464</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
@@ -36376,10 +36378,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>460.6632429024486</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36613,10 +36615,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>440.9775330409149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,10 +36852,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37081,16 +37083,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37625,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37783,7 +37785,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38105,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
